--- a/DDC BOM.xlsx
+++ b/DDC BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alevandovskiy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturs\Documents\Github-DDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB4B284-D494-4A6B-89DF-89B54CDE175D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="autopilot">List!$A$4:$A$5</definedName>
     <definedName name="GPS">List!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
   <si>
     <t>Amount of Drones</t>
   </si>
@@ -122,24 +123,9 @@
     <t>https://www.seeedstudio.com/fusion_pcb.html</t>
   </si>
   <si>
-    <t>3-pin connector</t>
-  </si>
-  <si>
-    <t>http://lv.farnell.com/harwin/m20-1060300/crimp-housing-3way/dp/865618</t>
-  </si>
-  <si>
-    <t>Crimp contact</t>
-  </si>
-  <si>
-    <t>http://lv.farnell.com/harwin/m20-1180042/crimp-socket-gold-22-30awg-pk100/dp/1022219</t>
-  </si>
-  <si>
     <t>XT60 male connector</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/NEW-XT60-Male-Female-Bullet-Connectors-Plugs-For-RC-LiPo-Battery-choose-your-best-love/32411055891.html</t>
-  </si>
-  <si>
     <t>18 AWG red wire</t>
   </si>
   <si>
@@ -155,9 +141,6 @@
     <t xml:space="preserve">26 AWG 3-wire </t>
   </si>
   <si>
-    <t>http://lv.farnell.com/amphenol-spectra-strip/135-2607-306/ribbon-cable-3c-6-core-per-m/dp/1301030</t>
-  </si>
-  <si>
     <t>Heat shrink tube, 6 mm</t>
   </si>
   <si>
@@ -242,9 +225,6 @@
     <t>https://drotek.com/shop/en/rtk/792-xl-rtk-gps-neo-m8p-rover.html</t>
   </si>
   <si>
-    <t>http://ardupilot.org/copter/docs/common-here-plus-gps.html</t>
-  </si>
-  <si>
     <t>https://www.rcmodellbau-online.de/PC-4860-Safe-Parallel-Adapter-4-x-1-8S-XT60</t>
   </si>
   <si>
@@ -317,9 +297,6 @@
     <t>Turnigy Reaktor QuadKore 1200W 80A (4 X 300W 20A) Balance Charger</t>
   </si>
   <si>
-    <t>https://www.hoelleinshop.com/rc-fernsteuerungen-spektrum-sender-dx9-black.htm?shop=hoellein&amp;SessionId=&amp;a=article&amp;ProdNr=HHSPMR9910EU&amp;t=182&amp;c=43712&amp;p=43712</t>
-  </si>
-  <si>
     <t>Spektrum Einzelsender DX9 Black Edition</t>
   </si>
   <si>
@@ -351,12 +328,24 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>https://www.hoelleinshop.com/Sender-Servos-etc-/Fernsteuerungen/Spektrum-2-4GHz/Spektrum-DX8-8-Kanal-DSMX-Einzelsender-Horizon-https://www.hoelleinshop.com/Sender-Servos-etc-/Fernsteuerungen/Spektrum-2-4GHz/Spektrum-DX8-8-Kanal-DSMX-Einzelsender-Horizon-SPMR8000EU.htm?shop=hoellein&amp;SessionId=&amp;a=article&amp;ProdNr=HHSPMR8000EU&amp;t=182&amp;c=43712&amp;p=43712</t>
+  </si>
+  <si>
+    <t>https://tienda.stockrc.com/epages/eb0140.sf/en_GB/?ObjectPath=/Shops/eb0140/Products/6005-P2-BO</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/20cm-jr-22awg-twisted-extension-lead-m-to-f-5pcs.html</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/male-xt60-connectors-5pcs-bag-genuine.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -488,6 +477,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -495,7 +495,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -577,12 +577,14 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
-    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Пояснение" xfId="3" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -961,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -989,7 +991,7 @@
       </c>
       <c r="B2" s="3">
         <f>Drones!G9</f>
-        <v>903.80600000000004</v>
+        <v>837.33000000000015</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,8 +999,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f>LEDs!F17</f>
-        <v>41.988135964912281</v>
+        <f>LEDs!F15</f>
+        <v>40.366135964912289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1018,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM(B2:B4)</f>
-        <v>1040.2751359649124</v>
+        <v>972.1771359649124</v>
       </c>
     </row>
   </sheetData>
@@ -1026,11 +1028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
@@ -1081,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F2" s="28">
         <v>169</v>
@@ -1096,10 +1098,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D3" s="20">
         <f>Total!$B$1</f>
@@ -1111,11 +1113,11 @@
       </c>
       <c r="F3" s="29">
         <f>VLOOKUP(B3,List!$A$4:$C$5,3,)</f>
-        <v>330.27600000000001</v>
+        <v>263.8</v>
       </c>
       <c r="G3" s="26">
         <f>D3*F3</f>
-        <v>330.27600000000001</v>
+        <v>263.8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,10 +1125,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D4" s="20">
         <f>Total!$B$1</f>
@@ -1150,7 +1152,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="20">
@@ -1158,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F5" s="27">
         <v>7.5</v>
@@ -1173,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="20">
@@ -1181,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F6" s="27">
         <v>48.58</v>
@@ -1196,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="20">
@@ -1204,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F7" s="27">
         <v>57.58</v>
@@ -1219,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="20">
@@ -1227,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F8" s="27">
         <v>50.99</v>
@@ -1243,23 +1245,23 @@
       </c>
       <c r="G9" s="42">
         <f>SUM(G2:G8)</f>
-        <v>903.80600000000004</v>
+        <v>837.33000000000015</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>List!$A$1:$A$2</xm:f>
           </x14:formula1>
@@ -1268,7 +1270,7 @@
           </x14:formula2>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>List!$A$4:$A$5</xm:f>
           </x14:formula1>
@@ -1281,11 +1283,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
@@ -1324,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="2">
@@ -1332,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7">
         <v>31.39</v>
@@ -1347,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="2">
@@ -1355,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F3" s="9">
         <v>22.68</v>
@@ -1370,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="2">
@@ -1378,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F4" s="9">
         <v>22.68</v>
@@ -1393,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="2">
@@ -1401,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F5" s="2">
         <v>4.04</v>
@@ -1416,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="2">
@@ -1424,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2">
         <v>4.0199999999999996</v>
@@ -1439,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="2">
@@ -1447,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2">
         <v>200.4</v>
@@ -1462,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="2">
@@ -1470,14 +1472,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2">
-        <v>449.99</v>
+        <v>299.99</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>449.99</v>
+        <v>299.99</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,10 +1487,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D9" s="20">
         <f>Total!$B$1*1</f>
@@ -1509,28 +1511,28 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G10" s="43">
         <f>SUM(G2:G9)</f>
-        <v>1291.24</v>
+        <v>1141.24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://www.hoelleinshop.com/Sender-Servos-etc-/Fernsteuerungen/Spektrum-2-4GHz/Spektrum-DX8-8-Kanal-DSMX-Einzelsender-Horizon-https://www.hoelleinshop.com/Sender-Servos-etc-/Fernsteuerungen/Spektrum-2-4GHz/Spektrum-DX8-8-Kanal-DSMX-Einzelsender-Horizon-SPMR8000EU.htm?shop=hoellein&amp;SessionId=&amp;a=article&amp;ProdNr=HHSPMR8000EU&amp;t=182&amp;c=43712&amp;p=43712" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>List!$A$10:$A$11</xm:f>
           </x14:formula1>
@@ -1543,11 +1545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1557,7 @@
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="89.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="1025" width="8.7109375" customWidth="1"/>
@@ -1702,7 +1704,7 @@
         <f>Total!$B$1*6</f>
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3">
@@ -1765,41 +1767,40 @@
         <v>29</v>
       </c>
       <c r="C10" s="2">
-        <f>Total!$B$1*1</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="E10" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>2.02</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <f>C10*E10</f>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <f>Total!$B$1*0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2">
-        <f>Total!$B$1*3</f>
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" s="3">
-        <f>5.7/100</f>
-        <v>5.7000000000000002E-2</v>
+        <f>44.13/15.2</f>
+        <v>2.903289473684211</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.17100000000000001</v>
+        <f>C11*E11</f>
+        <v>0.87098684210526323</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,21 +1808,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="18">
+        <f>Total!$B$1*0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2">
-        <f>Total!$B$1*1</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E12" s="3">
-        <v>0.66</v>
+        <f>45.54/15.2</f>
+        <v>2.9960526315789475</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.66</v>
+        <f>C12*E12</f>
+        <v>0.89881578947368423</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,19 +1834,19 @@
         <v>35</v>
       </c>
       <c r="C13" s="2">
-        <f>Total!$B$1*0.3</f>
-        <v>0.3</v>
+        <f>Total!$B$1*0.1</f>
+        <v>0.1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="3">
-        <f>44.13/15.2</f>
-        <v>2.903289473684211</v>
+        <f>1.78/1.2</f>
+        <v>1.4833333333333334</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.87098684210526323</v>
+        <f>C13*E13</f>
+        <v>0.14833333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,95 +1854,55 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="F14" s="3">
+        <f>C14*E14</f>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="E15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="18">
-        <f>Total!$B$1*0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="3">
-        <f>45.54/15.2</f>
-        <v>2.9960526315789475</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.89881578947368423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2">
-        <f>Total!$B$1*0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5.85</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7549999999999999</v>
+      <c r="F15" s="44">
+        <f>SUM(F2:F14)</f>
+        <v>40.366135964912289</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2">
-        <f>Total!$B$1*0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3">
-        <f>1.78/1.2</f>
-        <v>1.4833333333333334</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14833333333333334</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="44">
-        <f>SUM(F2:F16)</f>
-        <v>41.988135964912281</v>
-      </c>
+      <c r="A16" s="13"/>
+      <c r="B16" s="45"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="D13" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1948,7 +1910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1991,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <f>Total!$B$1*1</f>
@@ -2014,14 +1976,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E3" s="12">
         <v>81.180000000000007</v>
@@ -2036,14 +1998,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <f>Total!$B$1*2</f>
         <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E4" s="11">
         <v>2.06</v>
@@ -2058,14 +2020,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E5" s="12">
         <v>0.66</v>
@@ -2080,14 +2042,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" s="11">
         <v>0.60699999999999998</v>
@@ -2102,14 +2064,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <f>Total!$B$1*4</f>
         <v>4</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E7" s="12">
         <v>0.13</v>
@@ -2124,14 +2086,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <f>Total!$B$1*2</f>
         <v>2</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E8" s="11">
         <v>0.86099999999999999</v>
@@ -2146,14 +2108,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E9" s="12">
         <v>1.26</v>
@@ -2168,14 +2130,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
         <f>Total!$B$1*2</f>
         <v>2</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E10" s="11">
         <v>0.33600000000000002</v>
@@ -2190,14 +2152,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E11" s="12">
         <v>8.2000000000000003E-2</v>
@@ -2212,14 +2174,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2">
         <f>Total!$B$1*4</f>
         <v>4</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E12" s="11">
         <v>8.2000000000000003E-2</v>
@@ -2234,14 +2196,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E13" s="12">
         <v>2.5299999999999998</v>
@@ -2254,7 +2216,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="13"/>
       <c r="E14" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F14" s="44">
         <f>SUM(F2:F13)</f>
@@ -2266,18 +2228,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2285,11 +2247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,10 +2263,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="15">
         <v>239.88</v>
@@ -2312,10 +2274,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1">
         <v>300</v>
@@ -2323,22 +2285,22 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C4" s="18">
-        <f>275.23*1.2</f>
-        <v>330.27600000000001</v>
+        <f>263.8</f>
+        <v>263.8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C5" s="18">
         <v>120</v>
@@ -2348,8 +2310,8 @@
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>72</v>
+      <c r="B7" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="C7" s="7">
         <v>169</v>
@@ -2357,10 +2319,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="C10" s="20">
         <v>365</v>
@@ -2368,10 +2330,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C11" s="20">
         <v>539.88</v>
@@ -2379,11 +2341,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{E5294B65-72C9-4EDF-8FF4-36F282B5AA70}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{32277754-5445-4BBC-BBA9-77D765B1E988}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/DDC BOM.xlsx
+++ b/DDC BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturs\Documents\Github-DDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UGCS\dd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB4B284-D494-4A6B-89DF-89B54CDE175D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F779D1-B1DE-416B-B8A8-DB2CB512C706}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="1800" windowWidth="25455" windowHeight="14115" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,13 @@
     <definedName name="autopilot">List!$A$4:$A$5</definedName>
     <definedName name="GPS">List!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
   <si>
     <t>Amount of Drones</t>
   </si>
@@ -222,12 +227,6 @@
     <t>Total of the WiFi, €</t>
   </si>
   <si>
-    <t>https://drotek.com/shop/en/rtk/792-xl-rtk-gps-neo-m8p-rover.html</t>
-  </si>
-  <si>
-    <t>https://www.rcmodellbau-online.de/PC-4860-Safe-Parallel-Adapter-4-x-1-8S-XT60</t>
-  </si>
-  <si>
     <t>PC-4860 Safe Parallel Adapter 4 x 1-8S XT60</t>
   </si>
   <si>
@@ -237,48 +236,15 @@
     <t>https://www.unmannedtechshop.co.uk/pixhawk-2-1-standard-autopilot/</t>
   </si>
   <si>
-    <t>https://drotek.com/shop/en/dropix/478-dropix-flight-controller.html</t>
-  </si>
-  <si>
-    <t>GPS Folding Mount</t>
-  </si>
-  <si>
-    <t>https://rc-innovations.es/gps-folding-base-antenna-gps-set-fitting-seat-foldable-bracket-black-qa125-otros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100mW Ardupilot Unmanned Telemetry Kit V2 </t>
-  </si>
-  <si>
-    <t>https://www.unmannedtechshop.co.uk/100mw-ardupilot-unmanned-telemetry-kit-v2-433mhz/</t>
-  </si>
-  <si>
     <t>LiPo 4s 4000mAh GensAce</t>
   </si>
   <si>
     <t>http://www.gensace.de/gens-ace-4000mah-14-8v-25c-4s1p-lipo-battery-pack.html</t>
   </si>
   <si>
-    <t>https://www.hoelleinshop.com/Sender-Servos-etc-/Empfaenger/Spektrum/Spektrum-Satellitenempfaenger-DSM-X-SPM9645.htm?shop=hoellein&amp;SessionId=&amp;a=article&amp;ProdNr=HHSPM9645&amp;t=182&amp;c=43664&amp;p=43664</t>
-  </si>
-  <si>
-    <t>Spektrum DSMX Remote Satellite Receiver SPM9645</t>
-  </si>
-  <si>
     <t>Total of the accessories, €</t>
   </si>
   <si>
-    <t>https://hobbyking.com/en_us/turnigy-12awg-siliconewire-red-15m.html</t>
-  </si>
-  <si>
-    <t>Turnigy High Quality 12AWG Silicone Wire 15m (Red)</t>
-  </si>
-  <si>
-    <t>https://hobbyking.com/en_us/turnigy-12awg-siliconewire-black-15m.html</t>
-  </si>
-  <si>
-    <t>Turnigy High Quality 12AWG Silicone Wire 15m (Black)</t>
-  </si>
-  <si>
     <t>https://hobbyking.com/en_us/nylon-xt60-connectors-male-female-5-pairs-genuine.html</t>
   </si>
   <si>
@@ -306,9 +272,6 @@
     <t>https://rc-innovations.es/here-base-m8p-pixhawk-2.1-Hex-technology?search=here%20&amp;description=true</t>
   </si>
   <si>
-    <t>https://drotek.com/shop/en/rtk/818-xxl-rtk-gps-neo-m8p-2.html</t>
-  </si>
-  <si>
     <t>Drotek XXL RTK GPS</t>
   </si>
   <si>
@@ -333,20 +296,74 @@
     <t>https://www.hoelleinshop.com/Sender-Servos-etc-/Fernsteuerungen/Spektrum-2-4GHz/Spektrum-DX8-8-Kanal-DSMX-Einzelsender-Horizon-https://www.hoelleinshop.com/Sender-Servos-etc-/Fernsteuerungen/Spektrum-2-4GHz/Spektrum-DX8-8-Kanal-DSMX-Einzelsender-Horizon-SPMR8000EU.htm?shop=hoellein&amp;SessionId=&amp;a=article&amp;ProdNr=HHSPMR8000EU&amp;t=182&amp;c=43712&amp;p=43712</t>
   </si>
   <si>
-    <t>https://tienda.stockrc.com/epages/eb0140.sf/en_GB/?ObjectPath=/Shops/eb0140/Products/6005-P2-BO</t>
-  </si>
-  <si>
     <t>https://hobbyking.com/en_us/20cm-jr-22awg-twisted-extension-lead-m-to-f-5pcs.html</t>
   </si>
   <si>
     <t>https://hobbyking.com/en_us/male-xt60-connectors-5pcs-bag-genuine.html</t>
+  </si>
+  <si>
+    <t>https://store.drotek.com/DP0503</t>
+  </si>
+  <si>
+    <t>https://tienda.stockrc.com/epages/eb0140.sf/en_GB/?ObjectID=31087154</t>
+  </si>
+  <si>
+    <t>https://rc-innovations.es/gps-folding-base-antenna-gps-set-fitting-seat-foldable-bracket-black-mcg0023-otros?language=en&amp;amp%3Bcurrency=EUR</t>
+  </si>
+  <si>
+    <t>GPS Plug-in holder</t>
+  </si>
+  <si>
+    <t>Telemetry Radio Set V3 433MHz 100mW</t>
+  </si>
+  <si>
+    <t>https://www.mybotshop.de/Telemetry-Radio-Set-V3-433MHz-100mW</t>
+  </si>
+  <si>
+    <t>Spektrum DSMX Remote Satellite Receiver</t>
+  </si>
+  <si>
+    <t>https://www.freakware.de/p/spektrum-satellitenempfaenger-dsmx-bulk-spm9645-bulk-a96400.htm</t>
+  </si>
+  <si>
+    <t>https://www.mhm-modellbau.de/part-ISDT-PC-4860S.php</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/turnigy-12awg-siliconewire-red-10m.html</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/turnigy-12awg-siliconewire-black-10m.html</t>
+  </si>
+  <si>
+    <t>Turnigy High Quality 12AWG Silicone Wire 10m (Red)</t>
+  </si>
+  <si>
+    <t>Turnigy High Quality 12AWG Silicone Wire 10m (Black)</t>
+  </si>
+  <si>
+    <t>https://store.drotek.com/sirius-rtk-gnss-base-m8p</t>
+  </si>
+  <si>
+    <t>https://store.drotek.com/dropix-autopilot</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Hirose-Connector/DF13A-6P-125H21?qs=sGAEpiMZZMs%252BGHln7q6pm7BjqI3J1T15bCHcXI1lcLQ%3D</t>
+  </si>
+  <si>
+    <t>Connector Hirose DF13A-6P-1.25H</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Murata-Electronics/GRJ31CR71E106KE11L?qs=sGAEpiMZZMs0AnBnWHyRQCYr6WlISeMToNiMlCNWaQArHcdSnsX0qw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Yageo/AC0603FR-07340RL?qs=sGAEpiMZZMu61qfTUdNhG2gsBIEdmNIDBeLbqy89qNA%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -412,6 +429,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="186"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -495,7 +536,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -529,9 +570,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -579,6 +617,14 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53" customBuiltin="1"/>
@@ -967,7 +1013,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +1027,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24">
+      <c r="B1" s="23">
         <v>1</v>
       </c>
     </row>
@@ -991,7 +1037,7 @@
       </c>
       <c r="B2" s="3">
         <f>Drones!G9</f>
-        <v>837.33000000000015</v>
+        <v>821.0100000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,8 +1054,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f>'Wi-Fi'!F14</f>
-        <v>94.480999999999995</v>
+        <f>'Wi-Fi'!F17</f>
+        <v>93.83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1018,7 +1064,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM(B2:B4)</f>
-        <v>972.1771359649124</v>
+        <v>955.20613596491239</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +1078,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
@@ -1077,45 +1123,45 @@
       <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="20">
         <f>Total!$B$1</f>
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="28">
+      <c r="E2" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="27">
         <v>169</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <f>D2*F2</f>
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="D3" s="20">
         <f>Total!$B$1</f>
         <v>1</v>
       </c>
-      <c r="E3" s="23" t="str">
+      <c r="E3" s="37" t="str">
         <f>VLOOKUP(B3,List!$A$4:$C$5,2,)</f>
         <v>https://www.unmannedtechshop.co.uk/pixhawk-2-1-standard-autopilot/</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <f>VLOOKUP(B3,List!$A$4:$C$5,3,)</f>
         <v>263.8</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <f>D3*F3</f>
         <v>263.8</v>
       </c>
@@ -1125,24 +1171,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="D4" s="20">
         <f>Total!$B$1</f>
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="37" t="str">
         <f>VLOOKUP(B4,List!$A$1:$C$2,2,)</f>
-        <v>https://drotek.com/shop/en/rtk/792-xl-rtk-gps-neo-m8p-rover.html</v>
-      </c>
-      <c r="F4" s="30">
+        <v>https://store.drotek.com/DP0503</v>
+      </c>
+      <c r="F4" s="29">
         <f>VLOOKUP(B4,List!$A$1:$C$2,3,)</f>
         <v>239.88</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <f>D4*F4</f>
         <v>239.88</v>
       </c>
@@ -1152,22 +1198,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="25"/>
+        <v>90</v>
+      </c>
+      <c r="C5" s="24"/>
       <c r="D5" s="20">
         <f>Total!$B$1</f>
         <v>1</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="27">
-        <v>7.5</v>
-      </c>
-      <c r="G5" s="27">
+        <v>89</v>
+      </c>
+      <c r="F5" s="26">
+        <v>5.9</v>
+      </c>
+      <c r="G5" s="26">
         <f t="shared" ref="G5:G8" si="0">D5*F5</f>
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1175,22 +1221,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="25"/>
+        <v>91</v>
+      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="20">
         <f>Total!$B$1</f>
         <v>1</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="27">
-        <v>48.58</v>
-      </c>
-      <c r="G6" s="27">
-        <f t="shared" si="0"/>
-        <v>48.58</v>
+        <v>92</v>
+      </c>
+      <c r="F6" s="26">
+        <v>54.95</v>
+      </c>
+      <c r="G6" s="26">
+        <f t="shared" si="0"/>
+        <v>54.95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,20 +1244,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="C7" s="24"/>
       <c r="D7" s="20">
         <f>Total!$B$1</f>
         <v>1</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="27">
+        <v>66</v>
+      </c>
+      <c r="F7" s="26">
         <v>57.58</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <f t="shared" si="0"/>
         <v>57.58</v>
       </c>
@@ -1221,31 +1267,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="C8" s="24"/>
       <c r="D8" s="20">
         <f>Total!$B$1</f>
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="27">
-        <v>50.99</v>
-      </c>
-      <c r="G8" s="27">
-        <f t="shared" si="0"/>
-        <v>50.99</v>
+        <v>94</v>
+      </c>
+      <c r="F8" s="26">
+        <v>29.9</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" si="0"/>
+        <v>29.9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <f>SUM(G2:G8)</f>
-        <v>837.33000000000015</v>
+        <v>821.0100000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1255,12 +1301,13 @@
     <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{E314F741-E624-49FF-8B53-61D819914EF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>List!$A$1:$A$2</xm:f>
@@ -1287,7 +1334,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,11 +1349,11 @@
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
@@ -1322,88 +1369,88 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="39"/>
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="38"/>
       <c r="D2" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F2" s="7">
-        <v>31.39</v>
+        <v>34.9</v>
       </c>
       <c r="G2" s="2">
         <f>D2*F2</f>
-        <v>31.39</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F3" s="9">
-        <v>22.68</v>
+        <v>15.02</v>
       </c>
       <c r="G3" s="2">
         <f>F3*D3</f>
-        <v>22.68</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="40"/>
+      <c r="B4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="39"/>
       <c r="D4" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F4" s="9">
-        <v>22.68</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G9" si="0">F4*D4</f>
-        <v>22.68</v>
+        <v>16.670000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="40"/>
+      <c r="B5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="39"/>
       <c r="D5" s="2">
         <f>Total!$B$1*5</f>
         <v>5</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2">
         <v>4.04</v>
@@ -1414,19 +1461,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="40"/>
+      <c r="B6" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="39"/>
       <c r="D6" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2">
         <v>4.0199999999999996</v>
@@ -1437,19 +1484,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="40"/>
+      <c r="B7" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="39"/>
       <c r="D7" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2">
         <v>200.4</v>
@@ -1460,19 +1507,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="39"/>
       <c r="D8" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2">
         <v>299.99</v>
@@ -1483,22 +1530,22 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>97</v>
+      <c r="B9" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="D9" s="20">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="17" t="str">
         <f>VLOOKUP(B9,List!$A$10:$C$11,2,FALSE)</f>
-        <v>https://drotek.com/shop/en/rtk/818-xxl-rtk-gps-neo-m8p-2.html</v>
+        <v>https://store.drotek.com/sirius-rtk-gnss-base-m8p</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP(B9,List!$A$10:$C$11,3,FALSE)</f>
@@ -1511,11 +1558,11 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="43">
+        <v>67</v>
+      </c>
+      <c r="G10" s="42">
         <f>SUM(G2:G9)</f>
-        <v>1141.24</v>
+        <v>1131.08</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1596,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1648,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F16" si="0">C2*E2</f>
+        <f t="shared" ref="F2:F9" si="0">C2*E2</f>
         <v>1.5</v>
       </c>
     </row>
@@ -1770,7 +1817,7 @@
         <v>0.2</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3">
         <v>2.02</v>
@@ -1860,7 +1907,7 @@
         <v>0.2</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E14" s="3">
         <v>3.15</v>
@@ -1871,22 +1918,22 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="45"/>
       <c r="E15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="43">
         <f>SUM(F2:F14)</f>
         <v>40.366135964912289</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="44"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1911,16 +1958,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
@@ -1959,7 +2004,7 @@
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="11">
@@ -1967,7 +2012,7 @@
         <v>0.8</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F13" si="0">C2*E2</f>
+        <f t="shared" ref="F2:F16" si="0">C2*E2</f>
         <v>0.8</v>
       </c>
     </row>
@@ -1982,7 +2027,7 @@
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="12">
@@ -2004,7 +2049,7 @@
         <f>Total!$B$1*2</f>
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="11">
@@ -2016,215 +2061,278 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="49">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="49">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="12">
-        <v>0.66</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.66</v>
+      <c r="E5" s="51">
+        <v>0</v>
+      </c>
+      <c r="F5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
-        <f>Total!$B$1*1</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.60699999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.629</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.60699999999999998</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <f>Total!$B$1*1</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <f>Total!$B$1*4</f>
         <v>4</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>0.13</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="49">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="49">
         <f>Total!$B$1*2</f>
         <v>2</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="11">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>1.722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="E9" s="51">
+        <v>0</v>
+      </c>
+      <c r="F9" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0820000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E11" s="12">
         <v>1.26</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>1.26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C12" s="2">
         <f>Total!$B$1*2</f>
         <v>2</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E12" s="11">
         <v>0.33600000000000002</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C13" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E13" s="12">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C14" s="49">
         <f>Total!$B$1*4</f>
         <v>4</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D14" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="11">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E14" s="51">
+        <v>0</v>
+      </c>
+      <c r="F14" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="11">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C16" s="2">
         <f>Total!$B$1*1</f>
         <v>1</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E16" s="12">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="13"/>
-      <c r="E14" s="21" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="13"/>
+      <c r="E17" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="44">
-        <f>SUM(F2:F13)</f>
-        <v>94.480999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="14"/>
+      <c r="F17" s="43">
+        <f>SUM(F2:F16)</f>
+        <v>93.83</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2232,17 +2340,20 @@
     <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{BC0B1AC2-2C3C-4F4F-8123-258D393672F2}"/>
+    <hyperlink ref="D6" r:id="rId14" xr:uid="{851DD3B4-A04B-4C12-90BD-390721BDBF7A}"/>
+    <hyperlink ref="D15" r:id="rId15" xr:uid="{E8D10E17-7BE9-493F-9E9D-BC507AEAF745}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2251,7 +2362,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,10 +2374,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>87</v>
       </c>
       <c r="C1" s="15">
         <v>239.88</v>
@@ -2274,10 +2385,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1">
         <v>300</v>
@@ -2285,10 +2396,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="18">
         <f>263.8</f>
@@ -2297,10 +2408,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C5" s="18">
         <v>120</v>
@@ -2311,7 +2422,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="7">
         <v>169</v>
@@ -2319,10 +2430,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="C10" s="20">
         <v>365</v>
@@ -2330,10 +2441,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>90</v>
+        <v>77</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>100</v>
       </c>
       <c r="C11" s="20">
         <v>539.88</v>

--- a/DDC BOM.xlsx
+++ b/DDC BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UGCS\dd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\github_ddc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F779D1-B1DE-416B-B8A8-DB2CB512C706}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863372F-1B9D-475F-8A68-C7B0CF00128B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1800" windowWidth="25455" windowHeight="14115" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>Amount of Drones</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Pixhawk 2.1</t>
   </si>
   <si>
-    <t>Dropix</t>
-  </si>
-  <si>
     <t>Options</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
   </si>
   <si>
     <t>https://store.drotek.com/sirius-rtk-gnss-base-m8p</t>
-  </si>
-  <si>
-    <t>https://store.drotek.com/dropix-autopilot</t>
   </si>
   <si>
     <t>https://eu.mouser.com/ProductDetail/Hirose-Connector/DF13A-6P-125H21?qs=sGAEpiMZZMs%252BGHln7q6pm7BjqI3J1T15bCHcXI1lcLQ%3D</t>
@@ -1012,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1077,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1095,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
@@ -1147,7 +1141,7 @@
         <v>80</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="20">
         <f>Total!$B$1</f>
@@ -1174,7 +1168,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="20">
         <f>Total!$B$1</f>
@@ -1198,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="20">
@@ -1206,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="26">
         <v>5.9</v>
@@ -1221,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="20">
@@ -1229,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="26">
         <v>54.95</v>
@@ -1267,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="20">
@@ -1275,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="26">
         <v>29.9</v>
@@ -1307,7 +1301,7 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>List!$A$1:$A$2</xm:f>
@@ -1319,7 +1313,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
-            <xm:f>List!$A$4:$A$5</xm:f>
+            <xm:f>List!$A$4:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
@@ -1353,7 +1347,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
@@ -1381,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="7">
         <v>34.9</v>
@@ -1396,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2">
@@ -1404,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="9">
         <v>15.02</v>
@@ -1419,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="2">
@@ -1427,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="9">
         <v>16.670000000000002</v>
@@ -1519,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2">
         <v>299.99</v>
@@ -1537,7 +1531,7 @@
         <v>77</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="20">
         <f>Total!$B$1*1</f>
@@ -1817,7 +1811,7 @@
         <v>0.2</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3">
         <v>2.02</v>
@@ -1907,7 +1901,7 @@
         <v>0.2</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="3">
         <v>3.15</v>
@@ -2093,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="12">
         <v>0.629</v>
@@ -2174,13 +2168,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="11">
         <v>0.54100000000000004</v>
@@ -2289,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="11">
         <v>8.6999999999999994E-2</v>
@@ -2362,7 +2356,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,7 +2371,7 @@
         <v>78</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="15">
         <v>239.88</v>
@@ -2388,7 +2382,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1">
         <v>300</v>
@@ -2407,15 +2401,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="18">
-        <v>120</v>
-      </c>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="49"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -2444,7 +2432,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="20">
         <v>539.88</v>
@@ -2455,10 +2443,9 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{E5294B65-72C9-4EDF-8FF4-36F282B5AA70}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{32277754-5445-4BBC-BBA9-77D765B1E988}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{E5294B65-72C9-4EDF-8FF4-36F282B5AA70}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{32277754-5445-4BBC-BBA9-77D765B1E988}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
